--- a/irecodes-master/demand_damaged_t5.xlsx
+++ b/irecodes-master/demand_damaged_t5.xlsx
@@ -684,16 +684,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.875876792866992E-09</v>
+        <v>0.0002525280002777912</v>
       </c>
       <c r="E2">
-        <v>-0.002314814814815653</v>
+        <v>-0.002314814814815746</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.318954061269971E-08</v>
+        <v>0.0003372804520290057</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.481325794154953E-08</v>
+        <v>0.0003787919360176056</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>4.396453392992142E-09</v>
+        <v>0.0001124268107032396</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>-0.03102372374814341</v>
+        <v>-0.02897000270011224</v>
       </c>
     </row>
   </sheetData>
